--- a/3D_Modeling/data/Hull_AeroMap_V1.xlsx
+++ b/3D_Modeling/data/Hull_AeroMap_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njthi\OneDrive\Documents\GitHub\uav-modeling\3D_Modeling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338B4751-CC04-4E4D-A9E6-E0F072CD8EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7654A7-0343-4F71-96D8-7C61FF5010B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="1260" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,12 +414,12 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1048576"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,22 +430,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -456,22 +456,22 @@
         <v>-0.66666714358082213</v>
       </c>
       <c r="D2">
+        <v>1.15968883689734E-2</v>
+      </c>
+      <c r="E2">
         <v>0.51222349825107694</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <v>4.9425764758789326E-4</v>
+      </c>
+      <c r="G2">
         <v>-0.1000886039521237</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>-2.7248176871810998E-3</v>
       </c>
-      <c r="G2">
-        <v>4.9425764758789326E-4</v>
-      </c>
-      <c r="H2">
-        <v>1.15968883689734E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0</v>
       </c>
@@ -482,22 +482,22 @@
         <v>-0.72277002874880536</v>
       </c>
       <c r="D3">
+        <v>2.8561871499974E-3</v>
+      </c>
+      <c r="E3">
         <v>0.68314502223545437</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <v>1.961674920557071E-4</v>
+      </c>
+      <c r="G3">
         <v>-0.1154938872738506</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>-9.556619041942876E-4</v>
       </c>
-      <c r="G3">
-        <v>1.961674920557071E-4</v>
-      </c>
-      <c r="H3">
-        <v>2.8561871499974E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -508,22 +508,22 @@
         <v>-0.79782201674706932</v>
       </c>
       <c r="D4">
+        <v>-1.3683205475790701E-2</v>
+      </c>
+      <c r="E4">
         <v>0.88112072191930146</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <v>-1.233536704698E-3</v>
+      </c>
+      <c r="G4">
         <v>-0.1253699028383698</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>4.6281856978269004E-3</v>
       </c>
-      <c r="G4">
-        <v>-1.233536704698E-3</v>
-      </c>
-      <c r="H4">
-        <v>-1.3683205475790701E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
@@ -534,22 +534,22 @@
         <v>-0.60494384025246195</v>
       </c>
       <c r="D5">
+        <v>1.1988703964598999E-3</v>
+      </c>
+      <c r="E5">
         <v>0.2395274130027483</v>
       </c>
-      <c r="E5">
+      <c r="F5">
+        <v>3.8163007536095968E-5</v>
+      </c>
+      <c r="G5">
         <v>-5.2439090556580199E-2</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>-3.7541112650022758E-4</v>
       </c>
-      <c r="G5">
-        <v>3.8163007536095968E-5</v>
-      </c>
-      <c r="H5">
-        <v>1.1988703964598999E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0</v>
       </c>
@@ -560,22 +560,22 @@
         <v>-0.62873277286147877</v>
       </c>
       <c r="D6">
+        <v>2.886357793806088E-4</v>
+      </c>
+      <c r="E6">
         <v>0.37041648658035392</v>
       </c>
-      <c r="E6">
+      <c r="F6">
+        <v>-2.237142684860121E-5</v>
+      </c>
+      <c r="G6">
         <v>-7.7698805797191101E-2</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.4157065941833899E-5</v>
       </c>
-      <c r="G6">
-        <v>-2.237142684860121E-5</v>
-      </c>
-      <c r="H6">
-        <v>2.886357793806088E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
@@ -586,22 +586,22 @@
         <v>-0.58982283077311548</v>
       </c>
       <c r="D7">
+        <v>-1.7460088567542002E-2</v>
+      </c>
+      <c r="E7">
         <v>-1.7378549973345599E-2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
+        <v>-3.7858013661082358E-7</v>
+      </c>
+      <c r="G7">
         <v>-3.3376497578825001E-3</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>5.3320467563873998E-3</v>
       </c>
-      <c r="G7">
-        <v>-3.7858013661082358E-7</v>
-      </c>
-      <c r="H7">
-        <v>-1.7460088567542002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0</v>
       </c>
@@ -612,22 +612,22 @@
         <v>-0.68572178207430012</v>
       </c>
       <c r="D8">
+        <v>1.1282665243767099E-2</v>
+      </c>
+      <c r="E8">
         <v>-0.53186869274595594</v>
       </c>
-      <c r="E8">
+      <c r="F8">
+        <v>-6.0202698144138484E-4</v>
+      </c>
+      <c r="G8">
         <v>9.3588179356761503E-2</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>-3.3613398625968001E-3</v>
       </c>
-      <c r="G8">
-        <v>-6.0202698144138484E-4</v>
-      </c>
-      <c r="H8">
-        <v>1.1282665243767099E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -638,22 +638,22 @@
         <v>-0.74019310359714385</v>
       </c>
       <c r="D9">
+        <v>-1.2339241403434301E-2</v>
+      </c>
+      <c r="E9">
         <v>-0.66908166767178923</v>
       </c>
-      <c r="E9">
+      <c r="F9">
+        <v>9.1054439015763905E-4</v>
+      </c>
+      <c r="G9">
         <v>0.1147747265463395</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>4.0972435066620998E-3</v>
       </c>
-      <c r="G9">
-        <v>9.1054439015763905E-4</v>
-      </c>
-      <c r="H9">
-        <v>-1.2339241403434301E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0</v>
       </c>
@@ -664,22 +664,22 @@
         <v>-0.80738275610905319</v>
       </c>
       <c r="D10">
+        <v>2.1539894602494E-2</v>
+      </c>
+      <c r="E10">
         <v>-0.82465481996643675</v>
       </c>
-      <c r="E10">
+      <c r="F10">
+        <v>-1.6555920409444E-3</v>
+      </c>
+      <c r="G10">
         <v>0.1303015824871763</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>-6.0772934801768003E-3</v>
       </c>
-      <c r="G10">
-        <v>-1.6555920409444E-3</v>
-      </c>
-      <c r="H10">
-        <v>2.1539894602494E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0</v>
       </c>
@@ -690,22 +690,22 @@
         <v>-0.59935197344142621</v>
       </c>
       <c r="D11">
+        <v>-3.7382171353380002E-3</v>
+      </c>
+      <c r="E11">
         <v>-0.1566379886715786</v>
       </c>
-      <c r="E11">
+      <c r="F11">
+        <v>3.821173481777886E-5</v>
+      </c>
+      <c r="G11">
         <v>1.8074488011051802E-2</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>1.4478501736141999E-3</v>
       </c>
-      <c r="G11">
-        <v>3.821173481777886E-5</v>
-      </c>
-      <c r="H11">
-        <v>-3.7382171353380002E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0</v>
       </c>
@@ -716,22 +716,22 @@
         <v>-0.62129028756997151</v>
       </c>
       <c r="D12">
+        <v>-1.9041552535728E-3</v>
+      </c>
+      <c r="E12">
         <v>-0.27948095286763242</v>
       </c>
-      <c r="E12">
+      <c r="F12">
+        <v>6.2386606020158462E-5</v>
+      </c>
+      <c r="G12">
         <v>4.3689419235805202E-2</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>7.9010548664328029E-4</v>
       </c>
-      <c r="G12">
-        <v>6.2386606020158462E-5</v>
-      </c>
-      <c r="H12">
-        <v>-1.9041552535728E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>0</v>
       </c>
@@ -742,22 +742,22 @@
         <v>-0.64799565765900657</v>
       </c>
       <c r="D13">
+        <v>1.1620199864361999E-3</v>
+      </c>
+      <c r="E13">
         <v>-0.40015166090460919</v>
       </c>
-      <c r="E13">
+      <c r="F13">
+        <v>-4.2212609216836824E-6</v>
+      </c>
+      <c r="G13">
         <v>6.9978265586256597E-2</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>-1.883008807834333E-4</v>
       </c>
-      <c r="G13">
-        <v>-4.2212609216836824E-6</v>
-      </c>
-      <c r="H13">
-        <v>1.1620199864361999E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10</v>
       </c>
@@ -768,22 +768,22 @@
         <v>-0.84986677636251029</v>
       </c>
       <c r="D14">
+        <v>1.2004921174139109</v>
+      </c>
+      <c r="E14">
         <v>0.39834292140153138</v>
       </c>
-      <c r="E14">
+      <c r="F14">
+        <v>2.58655894950078E-2</v>
+      </c>
+      <c r="G14">
         <v>-0.120992882444242</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>0.10006063637801541</v>
       </c>
-      <c r="G14">
-        <v>2.58655894950078E-2</v>
-      </c>
-      <c r="H14">
-        <v>1.2004921174139109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>10</v>
       </c>
@@ -794,22 +794,22 @@
         <v>-0.91413780573883596</v>
       </c>
       <c r="D15">
+        <v>1.3013675941431051</v>
+      </c>
+      <c r="E15">
         <v>0.57877027075680021</v>
       </c>
-      <c r="E15">
+      <c r="F15">
+        <v>3.4161726076849898E-2</v>
+      </c>
+      <c r="G15">
         <v>-0.13268899657738181</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>7.7001326728364294E-2</v>
       </c>
-      <c r="G15">
-        <v>3.4161726076849898E-2</v>
-      </c>
-      <c r="H15">
-        <v>1.3013675941431051</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>10</v>
       </c>
@@ -820,22 +820,22 @@
         <v>-0.99961034828926121</v>
       </c>
       <c r="D16">
+        <v>1.4249374351776321</v>
+      </c>
+      <c r="E16">
         <v>0.77775803523427678</v>
       </c>
-      <c r="E16">
+      <c r="F16">
+        <v>4.4799721845790501E-2</v>
+      </c>
+      <c r="G16">
         <v>-0.13986349273494519</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>4.9790597762235003E-2</v>
       </c>
-      <c r="G16">
-        <v>4.4799721845790501E-2</v>
-      </c>
-      <c r="H16">
-        <v>1.4249374351776321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>10</v>
       </c>
@@ -846,22 +846,22 @@
         <v>-0.78286551847431185</v>
       </c>
       <c r="D17">
+        <v>1.0950649988421211</v>
+      </c>
+      <c r="E17">
         <v>0.15713481555798781</v>
       </c>
-      <c r="E17">
+      <c r="F17">
+        <v>1.23576839670951E-2</v>
+      </c>
+      <c r="G17">
         <v>-6.7835243450140206E-2</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>0.1245040296203714</v>
       </c>
-      <c r="G17">
-        <v>1.23576839670951E-2</v>
-      </c>
-      <c r="H17">
-        <v>1.0950649988421211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>10</v>
       </c>
@@ -872,22 +872,22 @@
         <v>-0.80682811031491708</v>
       </c>
       <c r="D18">
+        <v>1.126275973306025</v>
+      </c>
+      <c r="E18">
         <v>0.26722617997143672</v>
       </c>
-      <c r="E18">
+      <c r="F18">
+        <v>1.8436250176432401E-2</v>
+      </c>
+      <c r="G18">
         <v>-9.7682032391591206E-2</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>0.1170818880911005</v>
       </c>
-      <c r="G18">
-        <v>1.8436250176432401E-2</v>
-      </c>
-      <c r="H18">
-        <v>1.126275973306025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>10</v>
       </c>
@@ -898,22 +898,22 @@
         <v>-0.76378014565684005</v>
       </c>
       <c r="D19">
+        <v>1.1069626902716241</v>
+      </c>
+      <c r="E19">
         <v>-4.3018313592297901E-2</v>
       </c>
-      <c r="E19">
+      <c r="F19">
+        <v>1.7601650852737999E-3</v>
+      </c>
+      <c r="G19">
         <v>-4.8808060355463997E-3</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>0.1224170896857249</v>
       </c>
-      <c r="G19">
-        <v>1.7601650852737999E-3</v>
-      </c>
-      <c r="H19">
-        <v>1.1069626902716241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>10</v>
       </c>
@@ -924,22 +924,22 @@
         <v>-0.90117684543023324</v>
       </c>
       <c r="D20">
+        <v>1.3499073389918661</v>
+      </c>
+      <c r="E20">
         <v>-0.51991292222324181</v>
       </c>
-      <c r="E20">
+      <c r="F20">
+        <v>-2.3302802729017899E-2</v>
+      </c>
+      <c r="G20">
         <v>9.4162890316987102E-2</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>6.9350524717176107E-2</v>
       </c>
-      <c r="G20">
-        <v>-2.3302802729017899E-2</v>
-      </c>
-      <c r="H20">
-        <v>1.3499073389918661</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>10</v>
       </c>
@@ -950,22 +950,22 @@
         <v>-0.97365246621238422</v>
       </c>
       <c r="D21">
+        <v>1.4826261914475201</v>
+      </c>
+      <c r="E21">
         <v>-0.64524861812175371</v>
       </c>
-      <c r="E21">
+      <c r="F21">
+        <v>-3.5421036861423102E-2</v>
+      </c>
+      <c r="G21">
         <v>0.1151285058567665</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>3.9430139653323398E-2</v>
       </c>
-      <c r="G21">
-        <v>-3.5421036861423102E-2</v>
-      </c>
-      <c r="H21">
-        <v>1.4826261914475201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>10</v>
       </c>
@@ -976,22 +976,22 @@
         <v>-1.066089884261316</v>
       </c>
       <c r="D22">
+        <v>1.633216077271584</v>
+      </c>
+      <c r="E22">
         <v>-0.78776262343072034</v>
       </c>
-      <c r="E22">
+      <c r="F22">
+        <v>-4.9795000650943499E-2</v>
+      </c>
+      <c r="G22">
         <v>0.12959396245135921</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>7.6390581084262998E-3</v>
       </c>
-      <c r="G22">
-        <v>-4.9795000650943499E-2</v>
-      </c>
-      <c r="H22">
-        <v>1.633216077271584</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>10</v>
       </c>
@@ -1002,22 +1002,22 @@
         <v>-0.77578274942769898</v>
       </c>
       <c r="D23">
+        <v>1.144003018094423</v>
+      </c>
+      <c r="E23">
         <v>-0.1470827066871879</v>
       </c>
-      <c r="E23">
+      <c r="F23">
+        <v>-3.6278521970361998E-3</v>
+      </c>
+      <c r="G23">
         <v>2.5045339544089301E-2</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>0.11335250558693891</v>
       </c>
-      <c r="G23">
-        <v>-3.6278521970361998E-3</v>
-      </c>
-      <c r="H23">
-        <v>1.144003018094423</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>10</v>
       </c>
@@ -1028,22 +1028,22 @@
         <v>-0.80572534062621215</v>
       </c>
       <c r="D24">
+        <v>1.1571187305128181</v>
+      </c>
+      <c r="E24">
         <v>-0.3140882626931551</v>
       </c>
-      <c r="E24">
+      <c r="F24">
+        <v>-5.5720453930140001E-3</v>
+      </c>
+      <c r="G24">
         <v>3.5991739209006703E-2</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>0.1126307954516635</v>
       </c>
-      <c r="G24">
-        <v>-5.5720453930140001E-3</v>
-      </c>
-      <c r="H24">
-        <v>1.1571187305128181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>10</v>
       </c>
@@ -1054,22 +1054,22 @@
         <v>-0.84296573357528304</v>
       </c>
       <c r="D25">
+        <v>1.2422264099191931</v>
+      </c>
+      <c r="E25">
         <v>-0.40784128116302359</v>
       </c>
-      <c r="E25">
+      <c r="F25">
+        <v>-1.3668121307477099E-2</v>
+      </c>
+      <c r="G25">
         <v>6.8004388787701806E-2</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>9.3722932909701503E-2</v>
       </c>
-      <c r="G25">
-        <v>-1.3668121307477099E-2</v>
-      </c>
-      <c r="H25">
-        <v>1.2422264099191931</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>12.5</v>
       </c>
@@ -1080,22 +1080,22 @@
         <v>-0.96819790854689258</v>
       </c>
       <c r="D26">
+        <v>1.6058317701215341</v>
+      </c>
+      <c r="E26">
         <v>0.35615106915020711</v>
       </c>
-      <c r="E26">
+      <c r="F26">
+        <v>3.8306931659064097E-2</v>
+      </c>
+      <c r="G26">
         <v>-0.12653561468197769</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>9.6167573978550497E-2</v>
       </c>
-      <c r="G26">
-        <v>3.8306931659064097E-2</v>
-      </c>
-      <c r="H26">
-        <v>1.6058317701215341</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>12.5</v>
       </c>
@@ -1106,22 +1106,22 @@
         <v>-1.0364300562288791</v>
       </c>
       <c r="D27">
+        <v>1.709911922748393</v>
+      </c>
+      <c r="E27">
         <v>0.53273725748506673</v>
       </c>
-      <c r="E27">
+      <c r="F27">
+        <v>4.8828963367178499E-2</v>
+      </c>
+      <c r="G27">
         <v>-0.1385989051783659</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>7.2226531862858198E-2</v>
       </c>
-      <c r="G27">
-        <v>4.8828963367178499E-2</v>
-      </c>
-      <c r="H27">
-        <v>1.709911922748393</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>12.5</v>
       </c>
@@ -1132,22 +1132,22 @@
         <v>-1.131965980910435</v>
       </c>
       <c r="D28">
+        <v>1.83318046851409</v>
+      </c>
+      <c r="E28">
         <v>0.7457202342188981</v>
       </c>
-      <c r="E28">
+      <c r="F28">
+        <v>6.0542909719854099E-2</v>
+      </c>
+      <c r="G28">
         <v>-0.1412752600810967</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>4.4874844164336999E-2</v>
       </c>
-      <c r="G28">
-        <v>6.0542909719854099E-2</v>
-      </c>
-      <c r="H28">
-        <v>1.83318046851409</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>12.5</v>
       </c>
@@ -1158,22 +1158,22 @@
         <v>-0.89858187010387602</v>
       </c>
       <c r="D29">
+        <v>1.4824526732435539</v>
+      </c>
+      <c r="E29">
         <v>0.10935353577746559</v>
       </c>
-      <c r="E29">
+      <c r="F29">
+        <v>1.9524401012492101E-2</v>
+      </c>
+      <c r="G29">
         <v>-7.6356587299494197E-2</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>0.1271813318028768</v>
       </c>
-      <c r="G29">
-        <v>1.9524401012492101E-2</v>
-      </c>
-      <c r="H29">
-        <v>1.4824526732435539</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>12.5</v>
       </c>
@@ -1184,22 +1184,22 @@
         <v>-0.92114212118762639</v>
       </c>
       <c r="D30">
+        <v>1.5238359584047001</v>
+      </c>
+      <c r="E30">
         <v>0.21868998100328971</v>
       </c>
-      <c r="E30">
+      <c r="F30">
+        <v>2.8514160322917901E-2</v>
+      </c>
+      <c r="G30">
         <v>-0.1057060429593517</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>0.1162340288818092</v>
       </c>
-      <c r="G30">
-        <v>2.8514160322917901E-2</v>
-      </c>
-      <c r="H30">
-        <v>1.5238359584047001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>12.5</v>
       </c>
@@ -1210,22 +1210,22 @@
         <v>-0.88178027209322596</v>
       </c>
       <c r="D31">
+        <v>1.492280239879638</v>
+      </c>
+      <c r="E31">
         <v>-9.0646272679025794E-2</v>
       </c>
-      <c r="E31">
+      <c r="F31">
+        <v>4.4310153203975999E-3</v>
+      </c>
+      <c r="G31">
         <v>-1.55730729382627E-2</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>0.1257382862459327</v>
       </c>
-      <c r="G31">
-        <v>4.4310153203975999E-3</v>
-      </c>
-      <c r="H31">
-        <v>1.492280239879638</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>12.5</v>
       </c>
@@ -1236,22 +1236,22 @@
         <v>-1.0352388724473289</v>
       </c>
       <c r="D32">
+        <v>1.7813703433506409</v>
+      </c>
+      <c r="E32">
         <v>-0.52580805496412808</v>
       </c>
-      <c r="E32">
+      <c r="F32">
+        <v>-3.2302921519463297E-2</v>
+      </c>
+      <c r="G32">
         <v>9.0188053521363498E-2</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>6.2636304871831999E-2</v>
       </c>
-      <c r="G32">
-        <v>-3.2302921519463297E-2</v>
-      </c>
-      <c r="H32">
-        <v>1.7813703433506409</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>12.5</v>
       </c>
@@ -1262,22 +1262,22 @@
         <v>-1.1218799981225991</v>
       </c>
       <c r="D33">
+        <v>1.946124261665064</v>
+      </c>
+      <c r="E33">
         <v>-0.6306709318828192</v>
       </c>
-      <c r="E33">
+      <c r="F33">
+        <v>-4.8941530012315701E-2</v>
+      </c>
+      <c r="G33">
         <v>0.1137648416553067</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>2.5897091459261799E-2</v>
       </c>
-      <c r="G33">
-        <v>-4.8941530012315701E-2</v>
-      </c>
-      <c r="H33">
-        <v>1.946124261665064</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>12.5</v>
       </c>
@@ -1288,22 +1288,22 @@
         <v>-1.230973907541516</v>
       </c>
       <c r="D34">
+        <v>2.1411391244231779</v>
+      </c>
+      <c r="E34">
         <v>-0.77375240403793932</v>
       </c>
-      <c r="E34">
+      <c r="F34">
+        <v>-6.8315376970519204E-2</v>
+      </c>
+      <c r="G34">
         <v>0.1261856730290305</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>-1.6940284933891599E-2</v>
       </c>
-      <c r="G34">
-        <v>-6.8315376970519204E-2</v>
-      </c>
-      <c r="H34">
-        <v>2.1411391244231779</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>12.5</v>
       </c>
@@ -1314,22 +1314,22 @@
         <v>-0.89911519752560387</v>
       </c>
       <c r="D35">
+        <v>1.5239527988207291</v>
+      </c>
+      <c r="E35">
         <v>-0.24931311303316789</v>
       </c>
-      <c r="E35">
+      <c r="F35">
+        <v>6.2580659241981938E-4</v>
+      </c>
+      <c r="G35">
         <v>-3.1052298142864002E-3</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>0.1189868779516929</v>
       </c>
-      <c r="G35">
-        <v>6.2580659241981938E-4</v>
-      </c>
-      <c r="H35">
-        <v>1.5239527988207291</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>12.5</v>
       </c>
@@ -1340,22 +1340,22 @@
         <v>-0.92785024069197175</v>
       </c>
       <c r="D36">
+        <v>1.5660423440224269</v>
+      </c>
+      <c r="E36">
         <v>-0.34631322750162391</v>
       </c>
-      <c r="E36">
+      <c r="F36">
+        <v>-7.6868766154194997E-3</v>
+      </c>
+      <c r="G36">
         <v>2.75535291947612E-2</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>0.1106551462508272</v>
       </c>
-      <c r="G36">
-        <v>-7.6868766154194997E-3</v>
-      </c>
-      <c r="H36">
-        <v>1.5660423440224269</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>12.5</v>
       </c>
@@ -1366,22 +1366,22 @@
         <v>-0.97470709842007797</v>
       </c>
       <c r="D37">
+        <v>1.6520639155221519</v>
+      </c>
+      <c r="E37">
         <v>-0.42951230892048442</v>
       </c>
-      <c r="E37">
+      <c r="F37">
+        <v>-1.8581543863697699E-2</v>
+      </c>
+      <c r="G37">
         <v>6.0468717169126399E-2</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>9.2176187651727207E-2</v>
       </c>
-      <c r="G37">
-        <v>-1.8581543863697699E-2</v>
-      </c>
-      <c r="H37">
-        <v>1.6520639155221519</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>15</v>
       </c>
@@ -1392,22 +1392,22 @@
         <v>-1.1307771796581301</v>
       </c>
       <c r="D38">
+        <v>2.0498758207097372</v>
+      </c>
+      <c r="E38">
         <v>0.30527608520187599</v>
       </c>
-      <c r="E38">
+      <c r="F38">
+        <v>5.3226135967909302E-2</v>
+      </c>
+      <c r="G38">
         <v>-0.13278470599527151</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>8.1218455185920996E-2</v>
       </c>
-      <c r="G38">
-        <v>5.3226135967909302E-2</v>
-      </c>
-      <c r="H38">
-        <v>2.0498758207097372</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>15</v>
       </c>
@@ -1418,22 +1418,22 @@
         <v>-1.209762225932383</v>
       </c>
       <c r="D39">
+        <v>2.1499616173766949</v>
+      </c>
+      <c r="E39">
         <v>0.49193507228132372</v>
       </c>
-      <c r="E39">
+      <c r="F39">
+        <v>6.5279651190593702E-2</v>
+      </c>
+      <c r="G39">
         <v>-0.1410359622578212</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>5.7437468798149101E-2</v>
       </c>
-      <c r="G39">
-        <v>6.5279651190593702E-2</v>
-      </c>
-      <c r="H39">
-        <v>2.1499616173766949</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>15</v>
       </c>
@@ -1444,22 +1444,22 @@
         <v>-1.3112386576195909</v>
       </c>
       <c r="D40">
+        <v>2.2842868871320059</v>
+      </c>
+      <c r="E40">
         <v>0.71289712805687477</v>
       </c>
-      <c r="E40">
+      <c r="F40">
+        <v>7.9155548022528693E-2</v>
+      </c>
+      <c r="G40">
         <v>-0.13943115809054291</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>2.6164163586736702E-2</v>
       </c>
-      <c r="G40">
-        <v>7.9155548022528693E-2</v>
-      </c>
-      <c r="H40">
-        <v>2.2842868871320059</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>15</v>
       </c>
@@ -1470,22 +1470,22 @@
         <v>-1.055331246008969</v>
       </c>
       <c r="D41">
+        <v>1.927732495808385</v>
+      </c>
+      <c r="E41">
         <v>5.2389765997161303E-2</v>
       </c>
-      <c r="E41">
+      <c r="F41">
+        <v>2.9408896752449499E-2</v>
+      </c>
+      <c r="G41">
         <v>-8.6793113322721702E-2</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>0.11346386850330969</v>
       </c>
-      <c r="G41">
-        <v>2.9408896752449499E-2</v>
-      </c>
-      <c r="H41">
-        <v>1.927732495808385</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>15</v>
       </c>
@@ -1496,22 +1496,22 @@
         <v>-1.088132915469221</v>
       </c>
       <c r="D42">
+        <v>1.961649531782621</v>
+      </c>
+      <c r="E42">
         <v>0.17590271124533771</v>
       </c>
-      <c r="E42">
+      <c r="F42">
+        <v>3.97724207048471E-2</v>
+      </c>
+      <c r="G42">
         <v>-0.11022328112728701</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>0.1038620222195924</v>
       </c>
-      <c r="G42">
-        <v>3.97724207048471E-2</v>
-      </c>
-      <c r="H42">
-        <v>1.961649531782621</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>15</v>
       </c>
@@ -1522,22 +1522,22 @@
         <v>-1.0423523501332099</v>
       </c>
       <c r="D43">
+        <v>1.9292167272203899</v>
+      </c>
+      <c r="E43">
         <v>-0.1209113476302746</v>
       </c>
-      <c r="E43">
+      <c r="F43">
+        <v>6.7249011658656E-3</v>
+      </c>
+      <c r="G43">
         <v>-2.1185321243536E-2</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>0.1150616982594973</v>
       </c>
-      <c r="G43">
-        <v>6.7249011658656E-3</v>
-      </c>
-      <c r="H43">
-        <v>1.9292167272203899</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>15</v>
       </c>
@@ -1548,22 +1548,22 @@
         <v>-1.2183859118145779</v>
       </c>
       <c r="D44">
+        <v>2.2714826576387859</v>
+      </c>
+      <c r="E44">
         <v>-0.53159001050111832</v>
       </c>
-      <c r="E44">
+      <c r="F44">
+        <v>-4.32690899544865E-2</v>
+      </c>
+      <c r="G44">
         <v>8.4682728904253005E-2</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>4.10856146027904E-2</v>
       </c>
-      <c r="G44">
-        <v>-4.32690899544865E-2</v>
-      </c>
-      <c r="H44">
-        <v>2.2714826576387859</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>15</v>
       </c>
@@ -1574,22 +1574,22 @@
         <v>-1.313323115394917</v>
       </c>
       <c r="D45">
+        <v>2.4553643326254142</v>
+      </c>
+      <c r="E45">
         <v>-0.63224688640023352</v>
       </c>
-      <c r="E45">
+      <c r="F45">
+        <v>-6.3906856294460496E-2</v>
+      </c>
+      <c r="G45">
         <v>0.10799041261379221</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>2.5975827862676978E-4</v>
       </c>
-      <c r="G45">
-        <v>-6.3906856294460496E-2</v>
-      </c>
-      <c r="H45">
-        <v>2.4553643326254142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>15</v>
       </c>
@@ -1600,22 +1600,22 @@
         <v>-1.437037543959689</v>
       </c>
       <c r="D46">
+        <v>2.695008153597366</v>
+      </c>
+      <c r="E46">
         <v>-0.74161153149153591</v>
       </c>
-      <c r="E46">
+      <c r="F46">
+        <v>-9.0199902862017595E-2</v>
+      </c>
+      <c r="G46">
         <v>0.12542924779475931</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>-5.2546591732554097E-2</v>
       </c>
-      <c r="G46">
-        <v>-9.0199902862017595E-2</v>
-      </c>
-      <c r="H46">
-        <v>2.695008153597366</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>15</v>
       </c>
@@ -1626,22 +1626,22 @@
         <v>-1.0606070316040339</v>
       </c>
       <c r="D47">
+        <v>1.969175048466949</v>
+      </c>
+      <c r="E47">
         <v>-0.28830673154112069</v>
       </c>
-      <c r="E47">
+      <c r="F47">
+        <v>1.6810147776392999E-3</v>
+      </c>
+      <c r="G47">
         <v>-1.2257972148700899E-2</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>0.1072360135570134</v>
       </c>
-      <c r="G47">
-        <v>1.6810147776392999E-3</v>
-      </c>
-      <c r="H47">
-        <v>1.969175048466949</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>15</v>
       </c>
@@ -1652,22 +1652,22 @@
         <v>-1.0969152428855251</v>
       </c>
       <c r="D48">
+        <v>2.0256095268172118</v>
+      </c>
+      <c r="E48">
         <v>-0.36904815148586001</v>
       </c>
-      <c r="E48">
+      <c r="F48">
+        <v>-1.07369741858293E-2</v>
+      </c>
+      <c r="G48">
         <v>2.0857655901789798E-2</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>9.5311974634883903E-2</v>
       </c>
-      <c r="G48">
-        <v>-1.07369741858293E-2</v>
-      </c>
-      <c r="H48">
-        <v>2.0256095268172118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>15</v>
       </c>
@@ -1678,22 +1678,22 @@
         <v>-1.1427094348058251</v>
       </c>
       <c r="D49">
+        <v>2.1309648571591562</v>
+      </c>
+      <c r="E49">
         <v>-0.43734913177865259</v>
       </c>
-      <c r="E49">
+      <c r="F49">
+        <v>-2.6379683424684199E-2</v>
+      </c>
+      <c r="G49">
         <v>5.6911445604352101E-2</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>7.2503442131447299E-2</v>
       </c>
-      <c r="G49">
-        <v>-2.6379683424684199E-2</v>
-      </c>
-      <c r="H49">
-        <v>2.1309648571591562</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2.5</v>
       </c>
@@ -1704,22 +1704,22 @@
         <v>-0.67814701049015613</v>
       </c>
       <c r="D50">
+        <v>0.26552885471078752</v>
+      </c>
+      <c r="E50">
         <v>0.50457911429511992</v>
       </c>
-      <c r="E50">
+      <c r="F50">
+        <v>4.0447498380106004E-3</v>
+      </c>
+      <c r="G50">
         <v>-0.1013304846500115</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>3.4741277855878099E-2</v>
       </c>
-      <c r="G50">
-        <v>4.0447498380106004E-3</v>
-      </c>
-      <c r="H50">
-        <v>0.26552885471078752</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>2.5</v>
       </c>
@@ -1730,22 +1730,22 @@
         <v>-0.73475710725637833</v>
       </c>
       <c r="D51">
+        <v>0.29507449142739178</v>
+      </c>
+      <c r="E51">
         <v>0.67090894050212235</v>
       </c>
-      <c r="E51">
+      <c r="F51">
+        <v>6.0598390940457998E-3</v>
+      </c>
+      <c r="G51">
         <v>-0.11847439463898821</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>2.82516235853114E-2</v>
       </c>
-      <c r="G51">
-        <v>6.0598390940457998E-3</v>
-      </c>
-      <c r="H51">
-        <v>0.29507449142739178</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2.5</v>
       </c>
@@ -1756,22 +1756,22 @@
         <v>-0.80729639923797358</v>
       </c>
       <c r="D52">
+        <v>0.34178369498507638</v>
+      </c>
+      <c r="E52">
         <v>0.87343190416643768</v>
       </c>
-      <c r="E52">
+      <c r="F52">
+        <v>9.1086769151466004E-3</v>
+      </c>
+      <c r="G52">
         <v>-0.12648048924451191</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>1.8767989210842901E-2</v>
       </c>
-      <c r="G52">
-        <v>9.1086769151466004E-3</v>
-      </c>
-      <c r="H52">
-        <v>0.34178369498507638</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2.5</v>
       </c>
@@ -1782,22 +1782,22 @@
         <v>-0.6151160991202429</v>
       </c>
       <c r="D53">
+        <v>0.23584327777205449</v>
+      </c>
+      <c r="E53">
         <v>0.2318389300508589</v>
       </c>
-      <c r="E53">
+      <c r="F53">
+        <v>1.7931206699110999E-3</v>
+      </c>
+      <c r="G53">
         <v>-5.4121607565149901E-2</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>4.0234059422918002E-2</v>
       </c>
-      <c r="G53">
-        <v>1.7931206699110999E-3</v>
-      </c>
-      <c r="H53">
-        <v>0.23584327777205449</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2.5</v>
       </c>
@@ -1808,22 +1808,22 @@
         <v>-0.64004710830822198</v>
       </c>
       <c r="D54">
+        <v>0.24721619196375971</v>
+      </c>
+      <c r="E54">
         <v>0.36235110402471898</v>
       </c>
-      <c r="E54">
+      <c r="F54">
+        <v>2.7574222971117998E-3</v>
+      </c>
+      <c r="G54">
         <v>-7.9058444493936106E-2</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>3.8288842892482501E-2</v>
       </c>
-      <c r="G54">
-        <v>2.7574222971117998E-3</v>
-      </c>
-      <c r="H54">
-        <v>0.24721619196375971</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2.5</v>
       </c>
@@ -1834,22 +1834,22 @@
         <v>-0.59924597692697945</v>
       </c>
       <c r="D55">
+        <v>0.251267697857952</v>
+      </c>
+      <c r="E55">
         <v>-8.6169268012728992E-3</v>
       </c>
-      <c r="E55">
+      <c r="F55">
+        <v>2.7548855061937909E-4</v>
+      </c>
+      <c r="G55">
         <v>-1.832285503601298E-4</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <v>3.5426961756482502E-2</v>
       </c>
-      <c r="G55">
-        <v>2.7548855061937909E-4</v>
-      </c>
-      <c r="H55">
-        <v>0.251267697857952</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>2.5</v>
       </c>
@@ -1860,22 +1860,22 @@
         <v>-0.70225777731364447</v>
       </c>
       <c r="D56">
+        <v>0.27539803211118041</v>
+      </c>
+      <c r="E56">
         <v>-0.52853946881165947</v>
       </c>
-      <c r="E56">
+      <c r="F56">
+        <v>-3.1004945245475999E-3</v>
+      </c>
+      <c r="G56">
         <v>9.4149174593589596E-2</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <v>3.3424210059357598E-2</v>
       </c>
-      <c r="G56">
-        <v>-3.1004945245475999E-3</v>
-      </c>
-      <c r="H56">
-        <v>0.27539803211118041</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>2.5</v>
       </c>
@@ -1886,22 +1886,22 @@
         <v>-0.75433992878102241</v>
       </c>
       <c r="D57">
+        <v>0.3177708639596859</v>
+      </c>
+      <c r="E57">
         <v>-0.66314276733538202</v>
       </c>
-      <c r="E57">
+      <c r="F57">
+        <v>-5.9662416313680001E-3</v>
+      </c>
+      <c r="G57">
         <v>0.1158036776827141</v>
       </c>
-      <c r="F57">
+      <c r="H57">
         <v>2.3821986691320601E-2</v>
       </c>
-      <c r="G57">
-        <v>-5.9662416313680001E-3</v>
-      </c>
-      <c r="H57">
-        <v>0.3177708639596859</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>2.5</v>
       </c>
@@ -1912,22 +1912,22 @@
         <v>-0.82053431892610729</v>
       </c>
       <c r="D58">
+        <v>0.35746033108975761</v>
+      </c>
+      <c r="E58">
         <v>-0.81854053855294673</v>
       </c>
-      <c r="E58">
+      <c r="F58">
+        <v>-9.1473904992808008E-3</v>
+      </c>
+      <c r="G58">
         <v>0.1313182396548426</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>1.5180989342075801E-2</v>
       </c>
-      <c r="G58">
-        <v>-9.1473904992808008E-3</v>
-      </c>
-      <c r="H58">
-        <v>0.35746033108975761</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>2.5</v>
       </c>
@@ -1938,22 +1938,22 @@
         <v>-0.60870720298184833</v>
       </c>
       <c r="D59">
+        <v>0.2325663199809343</v>
+      </c>
+      <c r="E59">
         <v>-0.16144350429288179</v>
       </c>
-      <c r="E59">
+      <c r="F59">
+        <v>5.0588848308496647E-5</v>
+      </c>
+      <c r="G59">
         <v>1.6604672370925899E-2</v>
       </c>
-      <c r="F59">
+      <c r="H59">
         <v>4.2049039694449397E-2</v>
       </c>
-      <c r="G59">
-        <v>5.0588848308496647E-5</v>
-      </c>
-      <c r="H59">
-        <v>0.2325663199809343</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>2.5</v>
       </c>
@@ -1964,22 +1964,22 @@
         <v>-0.62709922386692174</v>
       </c>
       <c r="D60">
+        <v>0.24541936153242391</v>
+      </c>
+      <c r="E60">
         <v>-0.27499930101578529</v>
       </c>
-      <c r="E60">
+      <c r="F60">
+        <v>-8.2374512723702806E-4</v>
+      </c>
+      <c r="G60">
         <v>4.5485792347272E-2</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <v>3.9773922268701002E-2</v>
       </c>
-      <c r="G60">
-        <v>-8.2374512723702806E-4</v>
-      </c>
-      <c r="H60">
-        <v>0.24541936153242391</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2.5</v>
       </c>
@@ -1990,22 +1990,22 @@
         <v>-0.6621085257960686</v>
       </c>
       <c r="D61">
+        <v>0.25583183968073081</v>
+      </c>
+      <c r="E61">
         <v>-0.39808845998296227</v>
       </c>
-      <c r="E61">
+      <c r="F61">
+        <v>-1.6946473713459001E-3</v>
+      </c>
+      <c r="G61">
         <v>7.0606421118974999E-2</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>3.7875782910886703E-2</v>
       </c>
-      <c r="G61">
-        <v>-1.6946473713459001E-3</v>
-      </c>
-      <c r="H61">
-        <v>0.25583183968073081</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>5</v>
       </c>
@@ -2016,22 +2016,22 @@
         <v>-0.71081919323633191</v>
       </c>
       <c r="D62">
+        <v>0.55046261404051955</v>
+      </c>
+      <c r="E62">
         <v>0.47267947614889061</v>
       </c>
-      <c r="E62">
+      <c r="F62">
+        <v>9.5830519959210995E-3</v>
+      </c>
+      <c r="G62">
         <v>-0.1079202356560777</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <v>6.3924190564205702E-2</v>
       </c>
-      <c r="G62">
-        <v>9.5830519959210995E-3</v>
-      </c>
-      <c r="H62">
-        <v>0.55046261404051955</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>5</v>
       </c>
@@ -2042,22 +2042,22 @@
         <v>-0.76618956068845823</v>
       </c>
       <c r="D63">
+        <v>0.61510242232636658</v>
+      </c>
+      <c r="E63">
         <v>0.64218153693076985</v>
       </c>
-      <c r="E63">
+      <c r="F63">
+        <v>1.40052093178343E-2</v>
+      </c>
+      <c r="G63">
         <v>-0.1237624336539026</v>
       </c>
-      <c r="F63">
+      <c r="H63">
         <v>5.0139007833541499E-2</v>
       </c>
-      <c r="G63">
-        <v>1.40052093178343E-2</v>
-      </c>
-      <c r="H63">
-        <v>0.61510242232636658</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>5</v>
       </c>
@@ -2068,22 +2068,22 @@
         <v>-0.84282504872837694</v>
       </c>
       <c r="D64">
+        <v>0.6893925641483063</v>
+      </c>
+      <c r="E64">
         <v>0.85091108811951321</v>
       </c>
-      <c r="E64">
+      <c r="F64">
+        <v>1.90883661203879E-2</v>
+      </c>
+      <c r="G64">
         <v>-0.1299885591506223</v>
       </c>
-      <c r="F64">
+      <c r="H64">
         <v>3.5324112305831899E-2</v>
       </c>
-      <c r="G64">
-        <v>1.90883661203879E-2</v>
-      </c>
-      <c r="H64">
-        <v>0.6893925641483063</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>5</v>
       </c>
@@ -2094,22 +2094,22 @@
         <v>-0.64436519407966419</v>
       </c>
       <c r="D65">
+        <v>0.4894338428398381</v>
+      </c>
+      <c r="E65">
         <v>0.21912461671833949</v>
       </c>
-      <c r="E65">
+      <c r="F65">
+        <v>4.0527628619157E-3</v>
+      </c>
+      <c r="G65">
         <v>-5.6027790583202598E-2</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>7.6833577498632302E-2</v>
       </c>
-      <c r="G65">
-        <v>4.0527628619157E-3</v>
-      </c>
-      <c r="H65">
-        <v>0.4894338428398381</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>5</v>
       </c>
@@ -2120,22 +2120,22 @@
         <v>-0.66668537463431798</v>
       </c>
       <c r="D66">
+        <v>0.50218279663682552</v>
+      </c>
+      <c r="E66">
         <v>0.33164939017472361</v>
       </c>
-      <c r="E66">
+      <c r="F66">
+        <v>6.3165765949224004E-3</v>
+      </c>
+      <c r="G66">
         <v>-8.5956481528711007E-2</v>
       </c>
-      <c r="F66">
+      <c r="H66">
         <v>7.4614229909058194E-2</v>
       </c>
-      <c r="G66">
-        <v>6.3165765949224004E-3</v>
-      </c>
-      <c r="H66">
-        <v>0.50218279663682552</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>5</v>
       </c>
@@ -2146,22 +2146,22 @@
         <v>-0.62901377935337921</v>
       </c>
       <c r="D67">
+        <v>0.49624629016030952</v>
+      </c>
+      <c r="E67">
         <v>-7.4662118860973001E-3</v>
       </c>
-      <c r="E67">
+      <c r="F67">
+        <v>3.9447396261760228E-4</v>
+      </c>
+      <c r="G67">
         <v>1.5501439349926E-3</v>
       </c>
-      <c r="F67">
+      <c r="H67">
         <v>7.4196202303911496E-2</v>
       </c>
-      <c r="G67">
-        <v>3.9447396261760228E-4</v>
-      </c>
-      <c r="H67">
-        <v>0.49624629016030952</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>5</v>
       </c>
@@ -2172,22 +2172,22 @@
         <v>-0.73758821237023486</v>
       </c>
       <c r="D68">
+        <v>0.59399668381592041</v>
+      </c>
+      <c r="E68">
         <v>-0.51926938442728565</v>
       </c>
-      <c r="E68">
+      <c r="F68">
+        <v>-8.256181913996E-3</v>
+      </c>
+      <c r="G68">
         <v>9.6776997854225597E-2</v>
       </c>
-      <c r="F68">
+      <c r="H68">
         <v>5.5885169018630998E-2</v>
       </c>
-      <c r="G68">
-        <v>-8.256181913996E-3</v>
-      </c>
-      <c r="H68">
-        <v>0.59399668381592041</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>5</v>
       </c>
@@ -2198,22 +2198,22 @@
         <v>-0.793825725084778</v>
       </c>
       <c r="D69">
+        <v>0.66599378403135567</v>
+      </c>
+      <c r="E69">
         <v>-0.65825843034814813</v>
       </c>
-      <c r="E69">
+      <c r="F69">
+        <v>-1.3674580556321401E-2</v>
+      </c>
+      <c r="G69">
         <v>0.1165544328416135</v>
       </c>
-      <c r="F69">
+      <c r="H69">
         <v>3.9496806658232401E-2</v>
       </c>
-      <c r="G69">
-        <v>-1.3674580556321401E-2</v>
-      </c>
-      <c r="H69">
-        <v>0.66599378403135567</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>5</v>
       </c>
@@ -2224,22 +2224,22 @@
         <v>-0.86404658706763993</v>
       </c>
       <c r="D70">
+        <v>0.75251343897361567</v>
+      </c>
+      <c r="E70">
         <v>-0.80811555743089991</v>
       </c>
-      <c r="E70">
+      <c r="F70">
+        <v>-2.0881756717312801E-2</v>
+      </c>
+      <c r="G70">
         <v>0.13190308772819101</v>
       </c>
-      <c r="F70">
+      <c r="H70">
         <v>2.0500261116380598E-2</v>
       </c>
-      <c r="G70">
-        <v>-2.0881756717312801E-2</v>
-      </c>
-      <c r="H70">
-        <v>0.75251343897361567</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>5</v>
       </c>
@@ -2250,22 +2250,22 @@
         <v>-0.63745208892439698</v>
       </c>
       <c r="D71">
+        <v>0.49864830440137542</v>
+      </c>
+      <c r="E71">
         <v>-0.17192548386996759</v>
       </c>
-      <c r="E71">
+      <c r="F71">
+        <v>-5.3756496107308153E-5</v>
+      </c>
+      <c r="G71">
         <v>1.4332700319740601E-2</v>
       </c>
-      <c r="F71">
+      <c r="H71">
         <v>7.5439405848061594E-2</v>
       </c>
-      <c r="G71">
-        <v>-5.3756496107308153E-5</v>
-      </c>
-      <c r="H71">
-        <v>0.49864830440137542</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>5</v>
       </c>
@@ -2276,22 +2276,22 @@
         <v>-0.66029735128857558</v>
       </c>
       <c r="D72">
+        <v>0.51054414879159815</v>
+      </c>
+      <c r="E72">
         <v>-0.28623197787011567</v>
       </c>
-      <c r="E72">
+      <c r="F72">
+        <v>-1.8947866909483E-3</v>
+      </c>
+      <c r="G72">
         <v>4.2569320595954099E-2</v>
       </c>
-      <c r="F72">
+      <c r="H72">
         <v>7.3538013647824599E-2</v>
       </c>
-      <c r="G72">
-        <v>-1.8947866909483E-3</v>
-      </c>
-      <c r="H72">
-        <v>0.51054414879159815</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>5</v>
       </c>
@@ -2302,22 +2302,22 @@
         <v>-0.69299477584641944</v>
       </c>
       <c r="D73">
+        <v>0.53333823602196073</v>
+      </c>
+      <c r="E73">
         <v>-0.39532570991537458</v>
       </c>
-      <c r="E73">
+      <c r="F73">
+        <v>-4.3398246832274997E-3</v>
+      </c>
+      <c r="G73">
         <v>7.2395647783075903E-2</v>
       </c>
-      <c r="F73">
+      <c r="H73">
         <v>6.9362318123840694E-2</v>
       </c>
-      <c r="G73">
-        <v>-4.3398246832274997E-3</v>
-      </c>
-      <c r="H73">
-        <v>0.53333823602196073</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>7.5</v>
       </c>
@@ -2328,22 +2328,22 @@
         <v>-0.76523655777954225</v>
       </c>
       <c r="D74">
+        <v>0.85458389242483668</v>
+      </c>
+      <c r="E74">
         <v>0.43934563635549528</v>
       </c>
-      <c r="E74">
+      <c r="F74">
+        <v>1.65803052375132E-2</v>
+      </c>
+      <c r="G74">
         <v>-0.11452640212323589</v>
       </c>
-      <c r="F74">
+      <c r="H74">
         <v>8.7434414363755306E-2</v>
       </c>
-      <c r="G74">
-        <v>1.65803052375132E-2</v>
-      </c>
-      <c r="H74">
-        <v>0.85458389242483668</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>7.5</v>
       </c>
@@ -2354,22 +2354,22 @@
         <v>-0.8239292832027808</v>
       </c>
       <c r="D75">
+        <v>0.94374681584231879</v>
+      </c>
+      <c r="E75">
         <v>0.61242377479382049</v>
       </c>
-      <c r="E75">
+      <c r="F75">
+        <v>2.2946347287426699E-2</v>
+      </c>
+      <c r="G75">
         <v>-0.1286419491123558</v>
       </c>
-      <c r="F75">
+      <c r="H75">
         <v>6.8367834013863801E-2</v>
       </c>
-      <c r="G75">
-        <v>2.2946347287426699E-2</v>
-      </c>
-      <c r="H75">
-        <v>0.94374681584231879</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>7.5</v>
       </c>
@@ -2380,22 +2380,22 @@
         <v>-0.90565768295813198</v>
       </c>
       <c r="D76">
+        <v>1.045579607978256</v>
+      </c>
+      <c r="E76">
         <v>0.81681165566866054</v>
       </c>
-      <c r="E76">
+      <c r="F76">
+        <v>3.0792193879544901E-2</v>
+      </c>
+      <c r="G76">
         <v>-0.1352180874206857</v>
       </c>
-      <c r="F76">
+      <c r="H76">
         <v>4.6345498628837002E-2</v>
       </c>
-      <c r="G76">
-        <v>3.0792193879544901E-2</v>
-      </c>
-      <c r="H76">
-        <v>1.045579607978256</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>7.5</v>
       </c>
@@ -2406,22 +2406,22 @@
         <v>-0.69977344681052411</v>
       </c>
       <c r="D77">
+        <v>0.76446739142862519</v>
+      </c>
+      <c r="E77">
         <v>0.1951242357325367</v>
       </c>
-      <c r="E77">
+      <c r="F77">
+        <v>7.2238546839513001E-3</v>
+      </c>
+      <c r="G77">
         <v>-6.0814522033429803E-2</v>
       </c>
-      <c r="F77">
+      <c r="H77">
         <v>0.1079493331353511</v>
       </c>
-      <c r="G77">
-        <v>7.2238546839513001E-3</v>
-      </c>
-      <c r="H77">
-        <v>0.76446739142862519</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>7.5</v>
       </c>
@@ -2432,22 +2432,22 @@
         <v>-0.72282838095915403</v>
       </c>
       <c r="D78">
+        <v>0.79804702265824545</v>
+      </c>
+      <c r="E78">
         <v>0.3027123520970752</v>
       </c>
-      <c r="E78">
+      <c r="F78">
+        <v>1.15582908140661E-2</v>
+      </c>
+      <c r="G78">
         <v>-9.1280462572128102E-2</v>
       </c>
-      <c r="F78">
+      <c r="H78">
         <v>0.100099955396052</v>
       </c>
-      <c r="G78">
-        <v>1.15582908140661E-2</v>
-      </c>
-      <c r="H78">
-        <v>0.79804702265824545</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>7.5</v>
       </c>
@@ -2458,22 +2458,22 @@
         <v>-0.68377852440753983</v>
       </c>
       <c r="D79">
+        <v>0.78229889067335456</v>
+      </c>
+      <c r="E79">
         <v>-1.7569652497714802E-2</v>
       </c>
-      <c r="E79">
+      <c r="F79">
+        <v>7.1392991913896131E-4</v>
+      </c>
+      <c r="G79">
         <v>2.5444354573529488E-4</v>
       </c>
-      <c r="F79">
+      <c r="H79">
         <v>0.1030055498398019</v>
       </c>
-      <c r="G79">
-        <v>7.1392991913896131E-4</v>
-      </c>
-      <c r="H79">
-        <v>0.78229889067335456</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>7.5</v>
       </c>
@@ -2484,22 +2484,22 @@
         <v>-0.80024320486261735</v>
       </c>
       <c r="D80">
+        <v>0.94033037480857018</v>
+      </c>
+      <c r="E80">
         <v>-0.51769581479932636</v>
       </c>
-      <c r="E80">
+      <c r="F80">
+        <v>-1.47377920666026E-2</v>
+      </c>
+      <c r="G80">
         <v>9.6503765116529194E-2</v>
       </c>
-      <c r="F80">
+      <c r="H80">
         <v>6.9848602766838394E-2</v>
       </c>
-      <c r="G80">
-        <v>-1.47377920666026E-2</v>
-      </c>
-      <c r="H80">
-        <v>0.94033037480857018</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>7.5</v>
       </c>
@@ -2510,22 +2510,22 @@
         <v>-0.86647886449000799</v>
       </c>
       <c r="D81">
+        <v>1.0435247604840181</v>
+      </c>
+      <c r="E81">
         <v>-0.65116599634521055</v>
       </c>
-      <c r="E81">
+      <c r="F81">
+        <v>-2.3150567119065699E-2</v>
+      </c>
+      <c r="G81">
         <v>0.1165174918620096</v>
       </c>
-      <c r="F81">
+      <c r="H81">
         <v>4.66602130941694E-2</v>
       </c>
-      <c r="G81">
-        <v>-2.3150567119065699E-2</v>
-      </c>
-      <c r="H81">
-        <v>1.0435247604840181</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>7.5</v>
       </c>
@@ -2536,22 +2536,22 @@
         <v>-0.94520686500436557</v>
       </c>
       <c r="D82">
+        <v>1.168342675652817</v>
+      </c>
+      <c r="E82">
         <v>-0.79789095986545011</v>
       </c>
-      <c r="E82">
+      <c r="F82">
+        <v>-3.3839645169065201E-2</v>
+      </c>
+      <c r="G82">
         <v>0.1312546234141424</v>
       </c>
-      <c r="F82">
+      <c r="H82">
         <v>2.0288906004772699E-2</v>
       </c>
-      <c r="G82">
-        <v>-3.3839645169065201E-2</v>
-      </c>
-      <c r="H82">
-        <v>1.168342675652817</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>7.5</v>
       </c>
@@ -2562,22 +2562,22 @@
         <v>-0.6933728998232036</v>
       </c>
       <c r="D83">
+        <v>0.78641996309249285</v>
+      </c>
+      <c r="E83">
         <v>-0.1902129988914299</v>
       </c>
-      <c r="E83">
+      <c r="F83">
+        <v>6.6026605028043949E-5</v>
+      </c>
+      <c r="G83">
         <v>1.00122669691951E-2</v>
       </c>
-      <c r="F83">
+      <c r="H83">
         <v>0.1030326935821307</v>
       </c>
-      <c r="G83">
-        <v>6.6026605028043949E-5</v>
-      </c>
-      <c r="H83">
-        <v>0.78641996309249285</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>7.5</v>
       </c>
@@ -2588,22 +2588,22 @@
         <v>-0.71630143018478232</v>
       </c>
       <c r="D84">
+        <v>0.81377985262212793</v>
+      </c>
+      <c r="E84">
         <v>-0.29853555586594821</v>
       </c>
-      <c r="E84">
+      <c r="F84">
+        <v>-3.4648507957260998E-3</v>
+      </c>
+      <c r="G84">
         <v>3.9525163199368198E-2</v>
       </c>
-      <c r="F84">
+      <c r="H84">
         <v>9.7988512458936902E-2</v>
       </c>
-      <c r="G84">
-        <v>-3.4648507957260998E-3</v>
-      </c>
-      <c r="H84">
-        <v>0.81377985262212793</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>7.5</v>
       </c>
@@ -2614,19 +2614,19 @@
         <v>-0.75279096990977035</v>
       </c>
       <c r="D85">
+        <v>0.8672902140172235</v>
+      </c>
+      <c r="E85">
         <v>-0.4032012432536714</v>
       </c>
-      <c r="E85">
+      <c r="F85">
+        <v>-8.4124774577912995E-3</v>
+      </c>
+      <c r="G85">
         <v>6.9989498328776698E-2</v>
       </c>
-      <c r="F85">
+      <c r="H85">
         <v>8.6453373040100798E-2</v>
-      </c>
-      <c r="G85">
-        <v>-8.4124774577912995E-3</v>
-      </c>
-      <c r="H85">
-        <v>0.8672902140172235</v>
       </c>
     </row>
   </sheetData>
